--- a/helloWorld.xlsx
+++ b/helloWorld.xlsx
@@ -15,14 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
-  <si>
-    <t>task1</t>
-  </si>
-  <si>
-    <t>task2</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,19 +361,19 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>96</v>
+        <v>654</v>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/helloWorld.xlsx
+++ b/helloWorld.xlsx
@@ -362,18 +362,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="B1">
-        <v>2</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>654</v>
+        <v>456</v>
       </c>
       <c r="B2">
-        <v>123</v>
+        <v>101112</v>
       </c>
     </row>
   </sheetData>
